--- a/testcase/test_demo.xlsx
+++ b/testcase/test_demo.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jxb-api\testcase\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1170E5C-4FC1-4E71-8DC1-D1FD3F087A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="用户列表" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="用户列表"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -43,8 +37,7 @@
     <t>{{登录}}</t>
   </si>
   <si>
-    <t>admin
-admin@123</t>
+    <t/>
   </si>
   <si>
     <t>列表</t>
@@ -56,27 +49,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -106,29 +93,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="9">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -139,10 +138,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -180,71 +179,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -272,7 +271,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -295,11 +294,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -308,13 +307,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -324,7 +323,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -333,7 +332,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -342,7 +341,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -350,10 +349,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -418,25 +417,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="6" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="14.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,28 +451,31 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="33">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2"/>
+      <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/testcase/test_demo.xlsx
+++ b/testcase/test_demo.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jxb-api\testcase\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900E1911-C1AF-4F31-8A89-AE063A2CB890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="用户列表"/>
+    <sheet name="用户列表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>步骤</t>
   </si>
@@ -37,25 +43,70 @@
     <t>{{登录}}</t>
   </si>
   <si>
-    <t/>
+    <t>添加用户</t>
+  </si>
+  <si>
+    <r>
+      <t>{{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>添加用户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}}</t>
+    </r>
+  </si>
+  <si>
+    <t>name=test
+{"accountIdleType": 1,"accountIdleTime": 1,"authType": 2,"userClientEffectType": 1, "remarks": "nnnnn"}</t>
   </si>
   <si>
     <t>列表</t>
   </si>
   <si>
     <t>user_list</t>
+  </si>
+  <si>
+    <t>{"condition": "test"}</t>
+  </si>
+  <si>
+    <t>body::{"name": "test"}</t>
+  </si>
+  <si>
+    <t>删除用户</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{删除用户}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>name=test</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -64,6 +115,26 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -93,41 +164,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -138,10 +203,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -179,71 +244,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -271,7 +336,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -294,11 +359,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -307,13 +372,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -323,7 +388,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -332,7 +397,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -341,7 +406,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -349,10 +414,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -417,24 +482,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" style="6" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="8.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
+    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,31 +518,56 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="33">
+    <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="4"/>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="4"/>
+    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/testcase/test_demo.xlsx
+++ b/testcase/test_demo.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jxb-api\testcase\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900E1911-C1AF-4F31-8A89-AE063A2CB890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="用户列表" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="用户列表"/>
+    <sheet r:id="rId2" sheetId="2" name="另一个"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>步骤</t>
   </si>
@@ -35,6 +30,21 @@
   </si>
   <si>
     <t>断言</t>
+  </si>
+  <si>
+    <t>列表</t>
+  </si>
+  <si>
+    <t>user_list</t>
+  </si>
+  <si>
+    <t>{"condition": "test"}</t>
+  </si>
+  <si>
+    <t>body::{"name": "test"}</t>
+  </si>
+  <si>
+    <t>参数化</t>
   </si>
   <si>
     <t>登录</t>
@@ -64,49 +74,37 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>}}</t>
     </r>
   </si>
   <si>
-    <t>name=test
+    <t>name={{name}}
 {"accountIdleType": 1,"accountIdleTime": 1,"authType": 2,"userClientEffectType": 1, "remarks": "nnnnn"}</t>
   </si>
   <si>
-    <t>列表</t>
-  </si>
-  <si>
-    <t>user_list</t>
-  </si>
-  <si>
-    <t>{"condition": "test"}</t>
-  </si>
-  <si>
-    <t>body::{"name": "test"}</t>
+    <t>{"name": "test"}</t>
   </si>
   <si>
     <t>删除用户</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{{删除用户}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>name=test</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -124,17 +122,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -164,35 +154,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="11">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -203,10 +205,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -244,71 +246,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -336,7 +338,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -359,11 +361,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -372,13 +374,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -388,7 +390,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -397,7 +399,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -406,7 +408,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -414,10 +416,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -482,26 +484,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="82.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="4" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="82.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="29.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,57 +518,124 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="46.5">
+      <c r="A3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="25.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="19.719285714285714" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/testcase/test_demo.xlsx
+++ b/testcase/test_demo.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jxb-api\testcase\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C4EB88-3B42-4F6D-9C23-7C8B7F758AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="用户列表"/>
-    <sheet r:id="rId2" sheetId="2" name="另一个"/>
+    <sheet name="添加用户" sheetId="1" r:id="rId1"/>
+    <sheet name="用户列表" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>步骤</t>
   </si>
@@ -38,54 +44,34 @@
     <t>user_list</t>
   </si>
   <si>
-    <t>{"condition": "test"}</t>
+    <t>参数化</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>{{登录}}</t>
+  </si>
+  <si>
+    <t>添加用户</t>
+  </si>
+  <si>
+    <t>{{添加用户}}</t>
+  </si>
+  <si>
+    <t>name={{name}}
+{"role": 1}</t>
+  </si>
+  <si>
+    <t>{"name": "test"}</t>
+  </si>
+  <si>
+    <t>{"filter": "test"}</t>
   </si>
   <si>
     <t>body::{"name": "test"}</t>
   </si>
   <si>
-    <t>参数化</t>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>{{登录}}</t>
-  </si>
-  <si>
-    <t>添加用户</t>
-  </si>
-  <si>
-    <r>
-      <t>{{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>添加用户</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>}}</t>
-    </r>
-  </si>
-  <si>
-    <t>name={{name}}
-{"accountIdleType": 1,"accountIdleTime": 1,"authType": 2,"userClientEffectType": 1, "remarks": "nnnnn"}</t>
-  </si>
-  <si>
-    <t>{"name": "test"}</t>
-  </si>
-  <si>
     <t>删除用户</t>
   </si>
   <si>
@@ -93,18 +79,21 @@
   </si>
   <si>
     <t>name=test</t>
+  </si>
+  <si>
+    <t>{"filter": "test"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -121,10 +110,11 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -154,47 +144,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -205,10 +183,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -246,71 +224,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -338,7 +316,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -361,11 +339,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -374,13 +352,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -390,7 +368,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -399,7 +377,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -408,7 +386,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -416,10 +394,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -484,25 +462,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" style="4" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="82.14785714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="29.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="8.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
+    <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,38 +499,36 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="7"/>
+      <c r="F2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="46.5">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2"/>
+      <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="9" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
+    <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -558,15 +536,15 @@
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="7"/>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
+    <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -576,34 +554,35 @@
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="7"/>
+      <c r="D5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="25.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="19.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="2" width="13.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -620,7 +599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -628,14 +607,12 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/testcase/test_demo.xlsx
+++ b/testcase/test_demo.xlsx
@@ -1,27 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jxb-api\testcase\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C4EB88-3B42-4F6D-9C23-7C8B7F758AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21150" windowHeight="14100"/>
   </bookViews>
   <sheets>
     <sheet name="添加用户" sheetId="1" r:id="rId1"/>
     <sheet name="用户列表" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>步骤</t>
   </si>
@@ -38,13 +45,10 @@
     <t>断言</t>
   </si>
   <si>
-    <t>列表</t>
-  </si>
-  <si>
-    <t>user_list</t>
-  </si>
-  <si>
     <t>参数化</t>
+  </si>
+  <si>
+    <t>请求头</t>
   </si>
   <si>
     <t>登录</t>
@@ -66,6 +70,12 @@
     <t>{"name": "test"}</t>
   </si>
   <si>
+    <t>列表</t>
+  </si>
+  <si>
+    <t>user_list</t>
+  </si>
+  <si>
     <t>{"filter": "test"}</t>
   </si>
   <si>
@@ -79,53 +89,385 @@
   </si>
   <si>
     <t>name=test</t>
-  </si>
-  <si>
-    <t>{"filter": "test"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -134,45 +476,324 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -457,114 +1078,116 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="82.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="82.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.25" customWidth="1"/>
+    <col min="6" max="6" width="29" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="21" customHeight="1" spans="1:7">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="21" customHeight="1" spans="1:6">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
-    <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="3" ht="46.5" customHeight="1" spans="1:6">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="F3" s="2" t="s">
+    <row r="4" ht="21" customHeight="1" spans="1:6">
+      <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="5" ht="21" customHeight="1" spans="1:6">
+      <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="F5" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -574,45 +1197,45 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="13.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="18.75" customHeight="1" spans="1:5">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="2"/>
+    <row r="2" ht="18.75" customHeight="1" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>